--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FA58CA-C850-4BE1-9685-BC3628CAADDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="900" yWindow="408" windowWidth="10236" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">привет </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +344,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,25 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28810E4F-B738-4FDA-A86A-EC6BA5A0BB6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="900" yWindow="408" windowWidth="10236" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +366,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="e" cm="1">
+        <f t="array" ref="A1">A8q</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>A8+C8*D8/E8</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>